--- a/src/kraken_files/excel_files/STORJUSD.xlsx
+++ b/src/kraken_files/excel_files/STORJUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,116 +475,93 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C2" t="n">
-        <v>18.75</v>
+        <v>46.875</v>
       </c>
       <c r="D2" t="n">
-        <v>1.571005231824</v>
+        <v>1.48808805164544</v>
       </c>
       <c r="E2" t="n">
-        <v>1.606099206012</v>
+        <v>1.54709362882872</v>
       </c>
       <c r="F2" t="n">
-        <v>1.62216019807212</v>
+        <v>1.562564565117007</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828295</v>
+        <v>4.766299910684991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C3" t="n">
-        <v>46.875</v>
+        <v>117.1875</v>
       </c>
       <c r="D3" t="n">
-        <v>1.48808805164544</v>
+        <v>1.358737250533285</v>
       </c>
       <c r="E3" t="n">
-        <v>1.54709362882872</v>
+        <v>1.452915439681002</v>
       </c>
       <c r="F3" t="n">
-        <v>1.562564565117007</v>
+        <v>1.467444594077812</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684991</v>
+        <v>7.407935126357712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C4" t="n">
-        <v>117.1875</v>
+        <v>292.96875</v>
       </c>
       <c r="D4" t="n">
-        <v>1.358737250533285</v>
+        <v>1.156950000865526</v>
       </c>
       <c r="E4" t="n">
-        <v>1.452915439681002</v>
+        <v>1.304932720273264</v>
       </c>
       <c r="F4" t="n">
-        <v>1.467444594077812</v>
+        <v>1.317982047475997</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357712</v>
+        <v>12.21807587735018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C5" t="n">
-        <v>292.96875</v>
+        <v>732.421875</v>
       </c>
       <c r="D5" t="n">
-        <v>1.156950000865526</v>
+        <v>0.84216189133678</v>
       </c>
       <c r="E5" t="n">
-        <v>1.304932720273264</v>
+        <v>1.073547305805022</v>
       </c>
       <c r="F5" t="n">
-        <v>1.317982047475997</v>
+        <v>1.084282778863072</v>
       </c>
       <c r="G5" t="n">
-        <v>12.21807587735018</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C6" t="n">
-        <v>732.421875</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.84216189133678</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.073547305805022</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.084282778863072</v>
-      </c>
-      <c r="G6" t="n">
         <v>22.33005007975584</v>
       </c>
     </row>
@@ -599,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +614,16 @@
       </c>
       <c r="B3" t="n">
         <v>1.6576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OGGP6M-BDBT2-XIB2QR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.62216</v>
       </c>
     </row>
   </sheetData>
